--- a/shortcuts.xlsx
+++ b/shortcuts.xlsx
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>https://linkedin.com/in/james</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>text</t>
   </si>
@@ -27,14 +24,134 @@
     <t>key</t>
   </si>
   <si>
-    <t>/linkja</t>
+    <t>/linkmi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/michaelc07/</t>
+  </si>
+  <si>
+    <t>/linkda</t>
+  </si>
+  <si>
+    <t>/linkpe</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/daniel-ethicalbyte/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/peter-l-0a722a34b/</t>
+  </si>
+  <si>
+    <t>/potmi</t>
+  </si>
+  <si>
+    <t>https://michaelchen-guru.vercel.app/</t>
+  </si>
+  <si>
+    <t>/potda</t>
+  </si>
+  <si>
+    <t>https://daniel-ethicalcode.vercel.app/</t>
+  </si>
+  <si>
+    <t>/resda</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1uVbP45A7bWikgYhhWF3NknFBNvUsOG4J/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>/salmi</t>
+  </si>
+  <si>
+    <t>$120K - $140K</t>
+  </si>
+  <si>
+    <t>/salda</t>
+  </si>
+  <si>
+    <t>100,000 - 120,000</t>
+  </si>
+  <si>
+    <t>/salpe</t>
+  </si>
+  <si>
+    <t>140K - 160K</t>
+  </si>
+  <si>
+    <t>/emailmi</t>
+  </si>
+  <si>
+    <t>michaelacha17@gmail.com</t>
+  </si>
+  <si>
+    <t>/emailpe</t>
+  </si>
+  <si>
+    <t>peterethical71@gmail.com</t>
+  </si>
+  <si>
+    <t>/emailpeo</t>
+  </si>
+  <si>
+    <t>peteraztek@hotmail.com</t>
+  </si>
+  <si>
+    <t>/emailda</t>
+  </si>
+  <si>
+    <t>daniel.it9350@gmail.com</t>
+  </si>
+  <si>
+    <t>/addmi</t>
+  </si>
+  <si>
+    <t>5407 Wincheap Farm San Antonio, TX 78228</t>
+  </si>
+  <si>
+    <t>/addda</t>
+  </si>
+  <si>
+    <t>/addpe</t>
+  </si>
+  <si>
+    <t>2128 Los Padres Blvd, Santa Clara, CA 95050</t>
+  </si>
+  <si>
+    <t>/phonemi</t>
+  </si>
+  <si>
+    <t>/phoneda</t>
+  </si>
+  <si>
+    <t>/phonepe</t>
+  </si>
+  <si>
+    <t>/gitmi</t>
+  </si>
+  <si>
+    <t>https://github.com/kaloramik</t>
+  </si>
+  <si>
+    <t>/gitda</t>
+  </si>
+  <si>
+    <t>https://github.com/AnotherPianist</t>
+  </si>
+  <si>
+    <t>/gitpe</t>
+  </si>
+  <si>
+    <t>https://github.com/mightstar</t>
+  </si>
+  <si>
+    <t>2190 El Capitan Ave Santa Clara, CA 95050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,6 +163,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -68,14 +193,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -375,36 +503,208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.88671875" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="67.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>12086964143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>14242098463</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>17759865200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
